--- a/Data/GEF Field Trial/GEF_Deadwood_2017.10.16_Mdoda.xlsx
+++ b/Data/GEF Field Trial/GEF_Deadwood_2017.10.16_Mdoda.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GEF project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\Projects\PhD GeoInformatics\Data\GEF Field Trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="9720"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="INT-Lying Dead wood" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,6 +155,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -432,12 +500,17 @@
   <dimension ref="A1:F286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4112,7 +4185,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4121,7 +4194,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/GEF Field Trial/GEF_Deadwood_2017.10.16_Mdoda.xlsx
+++ b/Data/GEF Field Trial/GEF_Deadwood_2017.10.16_Mdoda.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
-    <sheet name="INT-Lying Dead wood" sheetId="1" r:id="rId1"/>
+    <sheet name="INT-Lying Deadwood" sheetId="1" r:id="rId1"/>
     <sheet name="INT-Standing Deadwood" sheetId="2" r:id="rId2"/>
     <sheet name="TCH-Lying Deadwood" sheetId="9" r:id="rId3"/>
     <sheet name="TCH-Standing Deadwood" sheetId="10" r:id="rId4"/>
@@ -242,7 +242,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="A5A5A5"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -500,7 +500,7 @@
   <dimension ref="A1:F286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +601,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>79.87</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -4194,12 +4194,15 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="16" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/Data/GEF Field Trial/GEF_Deadwood_2017.10.16_Mdoda.xlsx
+++ b/Data/GEF Field Trial/GEF_Deadwood_2017.10.16_Mdoda.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="25">
   <si>
     <t>Plot No:</t>
   </si>
@@ -97,12 +97,18 @@
   <si>
     <t>C</t>
   </si>
+  <si>
+    <t>Gap was here</t>
+  </si>
+  <si>
+    <t>was 1523</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +120,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,10 +158,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F286"/>
+  <dimension ref="A1:H282"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C236" sqref="C236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3079,7 +3093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E145">
         <v>15.3</v>
       </c>
@@ -3087,7 +3101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E146">
         <v>7.14</v>
       </c>
@@ -3095,81 +3109,121 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E147">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3">
         <v>9.99</v>
       </c>
-      <c r="F147">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F147" s="3">
+        <v>2</v>
+      </c>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="F148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <v>7.91</v>
+      </c>
+      <c r="F150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E151">
+        <v>38.880000000000003</v>
+      </c>
+      <c r="F151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E152">
-        <v>10.130000000000001</v>
+        <v>21.68</v>
       </c>
       <c r="F152">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="5:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E153">
-        <v>17.350000000000001</v>
+        <v>34.15</v>
       </c>
       <c r="F153">
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E154">
-        <v>7.91</v>
+        <v>16.8</v>
       </c>
       <c r="F154">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="5:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E155">
-        <v>38.880000000000003</v>
+        <v>14.6</v>
       </c>
       <c r="F155">
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E156">
-        <v>21.68</v>
+        <v>7.58</v>
       </c>
       <c r="F156">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="5:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E157">
-        <v>34.15</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="F157">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="5:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E158">
-        <v>16.8</v>
+        <v>10.87</v>
       </c>
       <c r="F158">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="5:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E159">
-        <v>14.6</v>
+        <v>8.58</v>
       </c>
       <c r="F159">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="5:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E160">
-        <v>7.58</v>
+        <v>9.44</v>
       </c>
       <c r="F160">
         <v>2</v>
@@ -3177,7 +3231,7 @@
     </row>
     <row r="161" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E161">
-        <v>17.579999999999998</v>
+        <v>16.52</v>
       </c>
       <c r="F161">
         <v>2</v>
@@ -3185,71 +3239,71 @@
     </row>
     <row r="162" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E162">
-        <v>10.87</v>
+        <v>23.02</v>
       </c>
       <c r="F162">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E163">
-        <v>8.58</v>
+        <v>7.99</v>
       </c>
       <c r="F163">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E164">
-        <v>9.44</v>
+        <v>7.92</v>
       </c>
       <c r="F164">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E165">
-        <v>16.52</v>
+        <v>38.32</v>
       </c>
       <c r="F165">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E166">
-        <v>23.02</v>
+        <v>7.44</v>
       </c>
       <c r="F166">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E167">
-        <v>7.99</v>
+        <v>5.59</v>
       </c>
       <c r="F167">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E168">
-        <v>7.92</v>
+        <v>6.32</v>
       </c>
       <c r="F168">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E169">
-        <v>38.32</v>
+        <v>7.8</v>
       </c>
       <c r="F169">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E170">
-        <v>7.44</v>
+        <v>7.69</v>
       </c>
       <c r="F170">
         <v>2</v>
@@ -3257,7 +3311,7 @@
     </row>
     <row r="171" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E171">
-        <v>5.59</v>
+        <v>9.93</v>
       </c>
       <c r="F171">
         <v>2</v>
@@ -3265,7 +3319,7 @@
     </row>
     <row r="172" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E172">
-        <v>6.32</v>
+        <v>5.89</v>
       </c>
       <c r="F172">
         <v>2</v>
@@ -3273,7 +3327,7 @@
     </row>
     <row r="173" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E173">
-        <v>7.8</v>
+        <v>6.92</v>
       </c>
       <c r="F173">
         <v>2</v>
@@ -3281,7 +3335,7 @@
     </row>
     <row r="174" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E174">
-        <v>7.69</v>
+        <v>6.93</v>
       </c>
       <c r="F174">
         <v>2</v>
@@ -3289,7 +3343,7 @@
     </row>
     <row r="175" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E175">
-        <v>9.93</v>
+        <v>5</v>
       </c>
       <c r="F175">
         <v>2</v>
@@ -3297,7 +3351,7 @@
     </row>
     <row r="176" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E176">
-        <v>5.89</v>
+        <v>5.33</v>
       </c>
       <c r="F176">
         <v>2</v>
@@ -3305,7 +3359,7 @@
     </row>
     <row r="177" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E177">
-        <v>6.92</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="F177">
         <v>2</v>
@@ -3313,7 +3367,7 @@
     </row>
     <row r="178" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E178">
-        <v>6.93</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="F178">
         <v>2</v>
@@ -3321,7 +3375,7 @@
     </row>
     <row r="179" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E179">
-        <v>5</v>
+        <v>16.34</v>
       </c>
       <c r="F179">
         <v>2</v>
@@ -3329,15 +3383,15 @@
     </row>
     <row r="180" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E180">
-        <v>5.33</v>
+        <v>8.36</v>
       </c>
       <c r="F180">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E181">
-        <v>8.0299999999999994</v>
+        <v>13.28</v>
       </c>
       <c r="F181">
         <v>2</v>
@@ -3345,7 +3399,7 @@
     </row>
     <row r="182" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E182">
-        <v>9.5500000000000007</v>
+        <v>14.66</v>
       </c>
       <c r="F182">
         <v>2</v>
@@ -3353,15 +3407,15 @@
     </row>
     <row r="183" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E183">
-        <v>16.34</v>
+        <v>6.33</v>
       </c>
       <c r="F183">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E184">
-        <v>8.36</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="F184">
         <v>3</v>
@@ -3369,7 +3423,7 @@
     </row>
     <row r="185" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E185">
-        <v>13.28</v>
+        <v>6.9</v>
       </c>
       <c r="F185">
         <v>2</v>
@@ -3377,7 +3431,7 @@
     </row>
     <row r="186" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E186">
-        <v>14.66</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F186">
         <v>2</v>
@@ -3385,15 +3439,15 @@
     </row>
     <row r="187" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E187">
-        <v>6.33</v>
+        <v>5.23</v>
       </c>
       <c r="F187">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E188">
-        <v>8.4600000000000009</v>
+        <v>6.3</v>
       </c>
       <c r="F188">
         <v>3</v>
@@ -3401,15 +3455,15 @@
     </row>
     <row r="189" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E189">
-        <v>6.9</v>
+        <v>22.06</v>
       </c>
       <c r="F189">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E190">
-        <v>9.3000000000000007</v>
+        <v>4.83</v>
       </c>
       <c r="F190">
         <v>2</v>
@@ -3417,7 +3471,7 @@
     </row>
     <row r="191" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E191">
-        <v>5.23</v>
+        <v>5.86</v>
       </c>
       <c r="F191">
         <v>2</v>
@@ -3425,23 +3479,23 @@
     </row>
     <row r="192" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E192">
-        <v>6.3</v>
+        <v>28.38</v>
       </c>
       <c r="F192">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E193">
-        <v>22.06</v>
+        <v>8.34</v>
       </c>
       <c r="F193">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E194">
-        <v>4.83</v>
+        <v>28.98</v>
       </c>
       <c r="F194">
         <v>2</v>
@@ -3449,7 +3503,7 @@
     </row>
     <row r="195" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E195">
-        <v>5.86</v>
+        <v>29.46</v>
       </c>
       <c r="F195">
         <v>2</v>
@@ -3457,7 +3511,7 @@
     </row>
     <row r="196" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E196">
-        <v>28.38</v>
+        <v>20.47</v>
       </c>
       <c r="F196">
         <v>2</v>
@@ -3465,7 +3519,7 @@
     </row>
     <row r="197" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E197">
-        <v>8.34</v>
+        <v>13.88</v>
       </c>
       <c r="F197">
         <v>2</v>
@@ -3473,7 +3527,7 @@
     </row>
     <row r="198" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E198">
-        <v>28.98</v>
+        <v>14.53</v>
       </c>
       <c r="F198">
         <v>2</v>
@@ -3481,15 +3535,15 @@
     </row>
     <row r="199" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E199">
-        <v>29.46</v>
+        <v>7.69</v>
       </c>
       <c r="F199">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E200">
-        <v>20.47</v>
+        <v>6.84</v>
       </c>
       <c r="F200">
         <v>2</v>
@@ -3497,7 +3551,7 @@
     </row>
     <row r="201" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E201">
-        <v>13.88</v>
+        <v>6.91</v>
       </c>
       <c r="F201">
         <v>2</v>
@@ -3505,7 +3559,7 @@
     </row>
     <row r="202" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E202">
-        <v>14.53</v>
+        <v>27.79</v>
       </c>
       <c r="F202">
         <v>2</v>
@@ -3513,47 +3567,47 @@
     </row>
     <row r="203" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E203">
-        <v>7.69</v>
+        <v>33.549999999999997</v>
       </c>
       <c r="F203">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E204">
-        <v>6.84</v>
+        <v>18.09</v>
       </c>
       <c r="F204">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E205">
-        <v>6.91</v>
+        <v>18.75</v>
       </c>
       <c r="F205">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E206">
-        <v>27.79</v>
+        <v>25.81</v>
       </c>
       <c r="F206">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E207">
-        <v>33.549999999999997</v>
+        <v>11.06</v>
       </c>
       <c r="F207">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E208">
-        <v>18.09</v>
+        <v>15.03</v>
       </c>
       <c r="F208">
         <v>3</v>
@@ -3561,39 +3615,39 @@
     </row>
     <row r="209" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E209">
-        <v>18.75</v>
+        <v>15.06</v>
       </c>
       <c r="F209">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E210">
-        <v>25.81</v>
+        <v>14.34</v>
       </c>
       <c r="F210">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E211">
-        <v>11.06</v>
+        <v>13.92</v>
       </c>
       <c r="F211">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E212">
-        <v>15.03</v>
+        <v>5.51</v>
       </c>
       <c r="F212">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E213">
-        <v>15.06</v>
+        <v>10.59</v>
       </c>
       <c r="F213">
         <v>2</v>
@@ -3601,15 +3655,15 @@
     </row>
     <row r="214" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E214">
-        <v>14.34</v>
+        <v>8.01</v>
       </c>
       <c r="F214">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E215">
-        <v>13.92</v>
+        <v>14.29</v>
       </c>
       <c r="F215">
         <v>2</v>
@@ -3617,7 +3671,7 @@
     </row>
     <row r="216" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E216">
-        <v>5.51</v>
+        <v>11.89</v>
       </c>
       <c r="F216">
         <v>2</v>
@@ -3625,15 +3679,15 @@
     </row>
     <row r="217" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E217">
-        <v>10.59</v>
+        <v>13.65</v>
       </c>
       <c r="F217">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E218">
-        <v>8.01</v>
+        <v>9.32</v>
       </c>
       <c r="F218">
         <v>3</v>
@@ -3641,7 +3695,7 @@
     </row>
     <row r="219" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E219">
-        <v>14.29</v>
+        <v>6.83</v>
       </c>
       <c r="F219">
         <v>2</v>
@@ -3649,7 +3703,7 @@
     </row>
     <row r="220" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E220">
-        <v>11.89</v>
+        <v>6.48</v>
       </c>
       <c r="F220">
         <v>2</v>
@@ -3657,7 +3711,7 @@
     </row>
     <row r="221" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E221">
-        <v>13.65</v>
+        <v>5.33</v>
       </c>
       <c r="F221">
         <v>3</v>
@@ -3665,7 +3719,7 @@
     </row>
     <row r="222" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E222">
-        <v>9.32</v>
+        <v>10.97</v>
       </c>
       <c r="F222">
         <v>3</v>
@@ -3673,7 +3727,7 @@
     </row>
     <row r="223" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E223">
-        <v>6.83</v>
+        <v>7.42</v>
       </c>
       <c r="F223">
         <v>2</v>
@@ -3681,7 +3735,7 @@
     </row>
     <row r="224" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E224">
-        <v>6.48</v>
+        <v>11.53</v>
       </c>
       <c r="F224">
         <v>2</v>
@@ -3689,23 +3743,23 @@
     </row>
     <row r="225" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E225">
-        <v>5.33</v>
+        <v>9.56</v>
       </c>
       <c r="F225">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E226">
-        <v>10.97</v>
+        <v>56.1</v>
       </c>
       <c r="F226">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E227">
-        <v>7.42</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="F227">
         <v>2</v>
@@ -3713,23 +3767,23 @@
     </row>
     <row r="228" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E228">
-        <v>11.53</v>
+        <v>41.08</v>
       </c>
       <c r="F228">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E229">
-        <v>9.56</v>
+        <v>45.37</v>
       </c>
       <c r="F229">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E230">
-        <v>56.1</v>
+        <v>13.05</v>
       </c>
       <c r="F230">
         <v>2</v>
@@ -3737,15 +3791,15 @@
     </row>
     <row r="231" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E231">
-        <v>8.2799999999999994</v>
+        <v>135.4</v>
       </c>
       <c r="F231">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E232">
-        <v>41.08</v>
+        <v>56.16</v>
       </c>
       <c r="F232">
         <v>3</v>
@@ -3753,7 +3807,7 @@
     </row>
     <row r="233" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E233">
-        <v>45.37</v>
+        <v>66.87</v>
       </c>
       <c r="F233">
         <v>3</v>
@@ -3761,7 +3815,7 @@
     </row>
     <row r="234" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E234">
-        <v>13.05</v>
+        <v>50.2</v>
       </c>
       <c r="F234">
         <v>2</v>
@@ -3769,7 +3823,7 @@
     </row>
     <row r="235" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E235">
-        <v>135.4</v>
+        <v>51.97</v>
       </c>
       <c r="F235">
         <v>3</v>
@@ -3777,7 +3831,7 @@
     </row>
     <row r="236" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E236">
-        <v>56.16</v>
+        <v>37.69</v>
       </c>
       <c r="F236">
         <v>3</v>
@@ -3785,23 +3839,23 @@
     </row>
     <row r="237" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E237">
-        <v>66.87</v>
+        <v>15.31</v>
       </c>
       <c r="F237">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E238">
-        <v>50.2</v>
+        <v>20.95</v>
       </c>
       <c r="F238">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E239">
-        <v>51.97</v>
+        <v>23.38</v>
       </c>
       <c r="F239">
         <v>3</v>
@@ -3809,135 +3863,138 @@
     </row>
     <row r="240" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E240">
-        <v>37.69</v>
+        <v>39.14</v>
       </c>
       <c r="F240">
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E241">
-        <v>15.31</v>
+        <v>11.81</v>
       </c>
       <c r="F241">
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E242">
-        <v>20.95</v>
+        <v>11.81</v>
       </c>
       <c r="F242">
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E243">
-        <v>23.38</v>
+        <v>9.86</v>
       </c>
       <c r="F243">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244" spans="5:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E244">
-        <v>39.14</v>
+        <v>9.39</v>
       </c>
       <c r="F244">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="245" spans="5:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E245">
-        <v>11.81</v>
+        <v>11.82</v>
       </c>
       <c r="F245">
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E246">
-        <v>11.81</v>
+        <v>12.54</v>
       </c>
       <c r="F246">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="247" spans="5:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E247">
-        <v>9.86</v>
+        <v>8.75</v>
       </c>
       <c r="F247">
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E248">
-        <v>9.39</v>
-      </c>
-      <c r="F248">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="5:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E248" s="3">
+        <v>152.30000000000001</v>
+      </c>
+      <c r="F248" s="3">
+        <v>3</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="249" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E249">
-        <v>11.82</v>
+        <v>6.55</v>
       </c>
       <c r="F249">
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E250">
-        <v>12.54</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="F250">
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E251">
-        <v>8.75</v>
+        <v>7.2</v>
       </c>
       <c r="F251">
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E252">
-        <v>1523</v>
+        <v>11.63</v>
       </c>
       <c r="F252">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="253" spans="5:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E253">
-        <v>6.55</v>
+        <v>5.98</v>
       </c>
       <c r="F253">
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E254">
-        <v>8.2799999999999994</v>
+        <v>5.72</v>
       </c>
       <c r="F254">
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E255">
-        <v>7.2</v>
+        <v>8.1</v>
       </c>
       <c r="F255">
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E256">
-        <v>11.63</v>
+        <v>8.02</v>
       </c>
       <c r="F256">
         <v>2</v>
@@ -3945,7 +4002,7 @@
     </row>
     <row r="257" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E257">
-        <v>5.98</v>
+        <v>6.98</v>
       </c>
       <c r="F257">
         <v>2</v>
@@ -3953,7 +4010,7 @@
     </row>
     <row r="258" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E258">
-        <v>5.72</v>
+        <v>5.49</v>
       </c>
       <c r="F258">
         <v>2</v>
@@ -3961,7 +4018,7 @@
     </row>
     <row r="259" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E259">
-        <v>8.1</v>
+        <v>5.03</v>
       </c>
       <c r="F259">
         <v>2</v>
@@ -3969,15 +4026,15 @@
     </row>
     <row r="260" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E260">
-        <v>8.02</v>
+        <v>18.37</v>
       </c>
       <c r="F260">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E261">
-        <v>6.98</v>
+        <v>6.23</v>
       </c>
       <c r="F261">
         <v>2</v>
@@ -3985,47 +4042,47 @@
     </row>
     <row r="262" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E262">
-        <v>5.49</v>
+        <v>7.99</v>
       </c>
       <c r="F262">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E263">
-        <v>5.03</v>
+        <v>6.68</v>
       </c>
       <c r="F263">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E264">
-        <v>18.37</v>
+        <v>4.92</v>
       </c>
       <c r="F264">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E265">
-        <v>6.23</v>
+        <v>7.15</v>
       </c>
       <c r="F265">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E266">
-        <v>7.99</v>
+        <v>5.89</v>
       </c>
       <c r="F266">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E267">
-        <v>6.68</v>
+        <v>17.05</v>
       </c>
       <c r="F267">
         <v>3</v>
@@ -4033,15 +4090,15 @@
     </row>
     <row r="268" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E268">
-        <v>4.92</v>
+        <v>18.670000000000002</v>
       </c>
       <c r="F268">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E269">
-        <v>7.15</v>
+        <v>8.06</v>
       </c>
       <c r="F269">
         <v>3</v>
@@ -4049,7 +4106,7 @@
     </row>
     <row r="270" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E270">
-        <v>5.89</v>
+        <v>11.44</v>
       </c>
       <c r="F270">
         <v>2</v>
@@ -4057,7 +4114,7 @@
     </row>
     <row r="271" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E271">
-        <v>17.05</v>
+        <v>12.97</v>
       </c>
       <c r="F271">
         <v>3</v>
@@ -4065,7 +4122,7 @@
     </row>
     <row r="272" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E272">
-        <v>18.670000000000002</v>
+        <v>9.09</v>
       </c>
       <c r="F272">
         <v>3</v>
@@ -4073,7 +4130,7 @@
     </row>
     <row r="273" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E273">
-        <v>8.06</v>
+        <v>26.58</v>
       </c>
       <c r="F273">
         <v>3</v>
@@ -4081,31 +4138,31 @@
     </row>
     <row r="274" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E274">
-        <v>11.44</v>
+        <v>8.16</v>
       </c>
       <c r="F274">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E275">
-        <v>12.97</v>
+        <v>12.68</v>
       </c>
       <c r="F275">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E276">
-        <v>9.09</v>
+        <v>6.84</v>
       </c>
       <c r="F276">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E277">
-        <v>26.58</v>
+        <v>18.73</v>
       </c>
       <c r="F277">
         <v>3</v>
@@ -4113,15 +4170,15 @@
     </row>
     <row r="278" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E278">
-        <v>8.16</v>
+        <v>7.24</v>
       </c>
       <c r="F278">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E279">
-        <v>12.68</v>
+        <v>8.11</v>
       </c>
       <c r="F279">
         <v>2</v>
@@ -4129,7 +4186,7 @@
     </row>
     <row r="280" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E280">
-        <v>6.84</v>
+        <v>9.61</v>
       </c>
       <c r="F280">
         <v>2</v>
@@ -4137,49 +4194,17 @@
     </row>
     <row r="281" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E281">
-        <v>18.73</v>
+        <v>7.22</v>
       </c>
       <c r="F281">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E282">
-        <v>7.24</v>
+        <v>5.08</v>
       </c>
       <c r="F282">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="283" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E283">
-        <v>8.11</v>
-      </c>
-      <c r="F283">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E284">
-        <v>9.61</v>
-      </c>
-      <c r="F284">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="285" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E285">
-        <v>7.22</v>
-      </c>
-      <c r="F285">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="286" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E286">
-        <v>5.08</v>
-      </c>
-      <c r="F286">
         <v>2</v>
       </c>
     </row>
@@ -4194,7 +4219,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4511,8 +4536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5734,7 +5759,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
